--- a/goods.xlsx
+++ b/goods.xlsx
@@ -1,19 +1,89 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView xWindow="390" yWindow="600" windowWidth="20775" windowHeight="11445"/>
+  </bookViews>
   <sheets>
     <sheet name="საქონელი" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+  <si>
+    <t>სახელი</t>
+  </si>
+  <si>
+    <t>განზომილება</t>
+  </si>
+  <si>
+    <t>კოდი</t>
+  </si>
+  <si>
+    <t>შტრიხკოდი</t>
+  </si>
+  <si>
+    <t>სერია</t>
+  </si>
+  <si>
+    <t>ვადა</t>
+  </si>
+  <si>
+    <t>მწარმოებელი</t>
+  </si>
+  <si>
+    <t>ჯგუფი</t>
+  </si>
+  <si>
+    <t>ყველა საწყობის ფასი</t>
+  </si>
+  <si>
+    <t>id-1-ფასი-საწყობი</t>
+  </si>
+  <si>
+    <t>ყველა საწყობის მინიმალური რაოდენობა</t>
+  </si>
+  <si>
+    <t>id-1-მინიმალური რაოდენობა-საწყობი</t>
+  </si>
+  <si>
+    <t>მაიკა</t>
+  </si>
+  <si>
+    <t>ცალი</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>ჯემპრი</t>
+  </si>
+  <si>
+    <t>სკამი</t>
+  </si>
+  <si>
+    <t>566462565651651</t>
+  </si>
+  <si>
+    <t>ეა-00001</t>
+  </si>
+  <si>
+    <t>ევროპა</t>
+  </si>
+  <si>
+    <t>მასალები</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -42,14 +112,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,122 +450,185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="9.625" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="11.75" customWidth="1"/>
+    <col min="9" max="9" width="21.25" customWidth="1"/>
+    <col min="10" max="10" width="18.625" customWidth="1"/>
+    <col min="11" max="11" width="41.25" customWidth="1"/>
+    <col min="12" max="12" width="35" customWidth="1"/>
+    <col min="13" max="13" width="36.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>სახელი</v>
-      </c>
-      <c r="B1" t="str">
-        <v>განზომილება</v>
-      </c>
-      <c r="C1" t="str">
-        <v>კოდი</v>
-      </c>
-      <c r="D1" t="str">
-        <v>შტრიხკოდი</v>
-      </c>
-      <c r="E1" t="str">
-        <v>სერია</v>
-      </c>
-      <c r="F1" t="str">
-        <v>ვადა</v>
-      </c>
-      <c r="G1" t="str">
-        <v>მწარმოებელი</v>
-      </c>
-      <c r="H1" t="str">
-        <v>ჯგუფი</v>
-      </c>
-      <c r="I1" t="str">
-        <v>ყველა საწყობის ფასი</v>
-      </c>
-      <c r="J1" t="str">
-        <v>id-1-ფასი-საწყობი</v>
-      </c>
-      <c r="K1" t="str">
-        <v>ყველა საწყობის მინიმალური რაოდენობა</v>
-      </c>
-      <c r="L1" t="str">
-        <v>id-1-მინიმალური რაოდენობა-საწყობი</v>
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>გაურკვეველი</v>
-      </c>
-      <c r="B2" t="str">
-        <v>ცალი</v>
-      </c>
-      <c r="C2" t="str">
-        <v>001</v>
-      </c>
-      <c r="D2" t="str">
-        <v/>
-      </c>
-      <c r="E2" t="str">
-        <v/>
-      </c>
-      <c r="G2" t="str">
-        <v/>
-      </c>
-      <c r="H2" t="str">
-        <v/>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1">
+        <v>45351</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>60</v>
+      </c>
+      <c r="J2">
+        <v>60</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>მაიკა</v>
-      </c>
-      <c r="B3" t="str">
-        <v>ცალი</v>
-      </c>
-      <c r="C3" t="str">
-        <v>001</v>
-      </c>
-      <c r="D3" t="str">
-        <v/>
-      </c>
-      <c r="E3" t="str">
-        <v/>
-      </c>
-      <c r="G3" t="str">
-        <v/>
-      </c>
-      <c r="H3" t="str">
-        <v/>
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1">
+        <v>45351</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>50</v>
+      </c>
+      <c r="J3">
+        <v>50</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>ჯემპრი</v>
-      </c>
-      <c r="B4" t="str">
-        <v>ცალი</v>
-      </c>
-      <c r="C4" t="str">
-        <v>001</v>
-      </c>
-      <c r="D4" t="str">
-        <v/>
-      </c>
-      <c r="E4" t="str">
-        <v/>
-      </c>
-      <c r="G4" t="str">
-        <v/>
-      </c>
-      <c r="H4" t="str">
-        <v/>
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1">
+        <v>45351</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>50</v>
+      </c>
+      <c r="J4">
+        <v>50</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
+    <ignoredError sqref="A1:L1 A4:H4 A3:C3 A2:C2 J4 L4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>